--- a/bugs.xlsx
+++ b/bugs.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\joasi\Desktop\Cursos\paylocity\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3628DA97-554F-4FE3-BBC6-09C9A6029487}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{8F3F6777-F118-408D-8E84-EE4BDC80601B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" activeTab="3" xr2:uid="{A56D34CE-A2A3-43E7-95A0-DBE03E240A82}"/>
   </bookViews>
@@ -23,6 +23,7 @@
     <definedName name="_xlnm._FilterDatabase" localSheetId="1" hidden="1">'Edit Employee'!$A$1:$D$1</definedName>
   </definedNames>
   <calcPr calcId="191029"/>
+  <fileRecoveryPr repairLoad="1"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -557,7 +558,7 @@
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="7">
+  <dxfs count="5">
     <dxf>
       <font>
         <b/>
@@ -621,28 +622,6 @@
       </font>
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
     </dxf>
-    <dxf>
-      <font>
-        <b/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <name val="Aptos Narrow"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </font>
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
   </dxfs>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
   <extLst>
@@ -657,12 +636,12 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="3" xr:uid="{E4ECF3D8-24A9-42F1-A60C-02E28A74BD3B}" name="Tabla3" displayName="Tabla3" ref="A1:G5" totalsRowShown="0" headerRowDxfId="5">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="3" xr:uid="{E4ECF3D8-24A9-42F1-A60C-02E28A74BD3B}" name="Tabla3" displayName="Tabla3" ref="A1:G5" totalsRowShown="0" headerRowDxfId="4">
   <autoFilter ref="A1:G5" xr:uid="{E4ECF3D8-24A9-42F1-A60C-02E28A74BD3B}"/>
   <tableColumns count="7">
     <tableColumn id="1" xr3:uid="{48081ECD-99D2-48A8-B069-4070F85A97A1}" name="Test Case ID"/>
     <tableColumn id="2" xr3:uid="{6B157ECB-FBFA-4014-8971-6B370D59F6EB}" name="Description"/>
-    <tableColumn id="3" xr3:uid="{E265A40A-8BC0-44EF-8CA0-7717C5CD377A}" name="Steps to Execute" dataDxfId="6"/>
+    <tableColumn id="3" xr3:uid="{E265A40A-8BC0-44EF-8CA0-7717C5CD377A}" name="Steps to Execute" dataDxfId="3"/>
     <tableColumn id="4" xr3:uid="{2AB959D0-DD56-4CD5-8513-15B57BB445AB}" name="Expected Result"/>
     <tableColumn id="5" xr3:uid="{DAB9417E-6C86-4BB9-AEA5-40C0A1224BA9}" name="Actual Result (if applicable)"/>
     <tableColumn id="6" xr3:uid="{629B87BD-5094-4D93-BF44-3D700CE055CB}" name="Pass/Fail"/>
@@ -673,22 +652,6 @@
 </file>
 
 <file path=xl/tables/table2.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="4" xr:uid="{189A3B7F-0CF8-4817-B77A-FFAA4EDB07F8}" name="Tabla35" displayName="Tabla35" ref="A1:G4" totalsRowShown="0" headerRowDxfId="4">
-  <autoFilter ref="A1:G4" xr:uid="{189A3B7F-0CF8-4817-B77A-FFAA4EDB07F8}"/>
-  <tableColumns count="7">
-    <tableColumn id="1" xr3:uid="{536541AA-9CD0-4682-802F-082AFBA52E6A}" name="Test Case ID"/>
-    <tableColumn id="2" xr3:uid="{0D2CD9BA-61CF-4927-9FA3-3063347400D9}" name="Description"/>
-    <tableColumn id="3" xr3:uid="{BD4744AB-8878-495F-A38C-9EF182DBE92E}" name="Steps to Execute" dataDxfId="3"/>
-    <tableColumn id="4" xr3:uid="{E1B57F57-09A0-423F-94ED-88194528FDC5}" name="Expected Result"/>
-    <tableColumn id="5" xr3:uid="{F322C13D-F7C2-4879-A78F-8641AE46AFA5}" name="Actual Result (if applicable)"/>
-    <tableColumn id="6" xr3:uid="{0C80D005-EA76-4E23-AAFA-0E0A3EEB4585}" name="Pass/Fail"/>
-    <tableColumn id="7" xr3:uid="{11E55E08-00F6-4420-94A7-0E97153CB9FD}" name="Notes"/>
-  </tableColumns>
-  <tableStyleInfo name="TableStyleMedium1" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
-</table>
-</file>
-
-<file path=xl/tables/table3.xml><?xml version="1.0" encoding="utf-8"?>
 <table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="5" xr:uid="{048DAE96-C058-46A1-BFA6-8BE0AE003D18}" name="Tabla356" displayName="Tabla356" ref="A1:G4" totalsRowShown="0" headerRowDxfId="2">
   <autoFilter ref="A1:G4" xr:uid="{048DAE96-C058-46A1-BFA6-8BE0AE003D18}"/>
   <tableColumns count="7">
@@ -704,7 +667,7 @@
 </table>
 </file>
 
-<file path=xl/tables/table4.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/tables/table3.xml><?xml version="1.0" encoding="utf-8"?>
 <table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="8" xr:uid="{D2E96394-3A41-4FD8-84D2-5A08C5B6CAD9}" name="Tabla8" displayName="Tabla8" ref="A1:I18" totalsRowShown="0" headerRowDxfId="0">
   <autoFilter ref="A1:I18" xr:uid="{D2E96394-3A41-4FD8-84D2-5A08C5B6CAD9}"/>
   <tableColumns count="9">
@@ -1247,9 +1210,6 @@
   </sheetData>
   <autoFilter ref="A1:D1" xr:uid="{16F88AFF-AB9B-479B-964B-D90BA132614D}"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <tableParts count="1">
-    <tablePart r:id="rId1"/>
-  </tableParts>
 </worksheet>
 </file>
 
@@ -1355,7 +1315,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{CC2BAC51-71A5-4729-A9D2-23C949188BE0}">
   <dimension ref="A1:I14"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A11" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+    <sheetView tabSelected="1" topLeftCell="A6" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
       <selection activeCell="G12" sqref="G12"/>
     </sheetView>
   </sheetViews>
